--- a/data/trans_camb/P16A17-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Clase-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.895798276055438</v>
+        <v>-3.063587603763357</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.726173695184849</v>
+        <v>-3.443090384234527</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.288218964041017</v>
+        <v>-4.181824450087385</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.815088524768794</v>
+        <v>2.055547724044097</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2630949589969304</v>
+        <v>0.4922580649726653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.4278210761819664</v>
+        <v>-0.3109922267988903</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8778100691205885</v>
+        <v>-0.8864124717209524</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9107635727531297</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9563462962810222</v>
+        <v>-0.9641555440264163</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.938927935885875</v>
+        <v>1.947909014877574</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.020685158638092</v>
+        <v>1.294013657952477</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.1996639326750491</v>
+        <v>-0.1686019305309744</v>
       </c>
     </row>
     <row r="10">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3071576838628708</v>
+        <v>0.3197015570805499</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.796572360189294</v>
+        <v>1.702604368527805</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.955487373864841</v>
+        <v>1.921503806335967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.797322356710898</v>
+        <v>1.944001580648041</v>
       </c>
     </row>
     <row r="13">
@@ -822,7 +822,7 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>2.351507908685353</v>
+        <v>2.310951699988402</v>
       </c>
     </row>
     <row r="19">
@@ -880,7 +880,7 @@
         <v>-0.5856451947141388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.6396403124647256</v>
+        <v>-0.6396403124647257</v>
       </c>
     </row>
     <row r="23">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.245129421968106</v>
+        <v>-1.188182496038094</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.469244882469905</v>
+        <v>-1.473741633296539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.504912963087354</v>
+        <v>-1.607010075198764</v>
       </c>
     </row>
     <row r="24">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6503920246516568</v>
+        <v>0.6786713720716062</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1648002284354748</v>
+        <v>0.1062921386330656</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02082152881403438</v>
+        <v>-0.02611111309736586</v>
       </c>
     </row>
     <row r="25">
@@ -931,7 +931,7 @@
         <v>-0.6188015081274184</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.6758535604573102</v>
+        <v>-0.6758535604573103</v>
       </c>
     </row>
     <row r="26">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.8386790493959769</v>
+        <v>-0.8536290344151508</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9207740325336206</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.9418123442167863</v>
+        <v>-0.9313386105938606</v>
       </c>
     </row>
     <row r="27">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.420544753090069</v>
+        <v>1.873696431828871</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9897536750910113</v>
+        <v>1.01221220244025</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3809272135928485</v>
+        <v>0.4608822652732909</v>
       </c>
     </row>
     <row r="28">
@@ -986,7 +986,7 @@
         <v>-0.1477062431778277</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.1486071645837032</v>
+        <v>0.1486071645837033</v>
       </c>
     </row>
     <row r="29">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.7628398840917976</v>
+        <v>-0.7762452303976619</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.097592979599203</v>
+        <v>-1.03878401606827</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7569701075494203</v>
+        <v>-0.7450178821950342</v>
       </c>
     </row>
     <row r="30">
@@ -1014,13 +1014,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.110286101658747</v>
+        <v>1.159024067982283</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.643824058167443</v>
+        <v>0.651873051177041</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9365931625359138</v>
+        <v>0.9088831501401478</v>
       </c>
     </row>
     <row r="31">
@@ -1037,7 +1037,7 @@
         <v>-0.2186418988508941</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2199754861296585</v>
+        <v>0.2199754861296588</v>
       </c>
     </row>
     <row r="32">
@@ -1048,13 +1048,11 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.771130999198048</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-0.8940332590772382</v>
-      </c>
+        <v>-0.7675934292333751</v>
+      </c>
+      <c r="D32" s="6" t="inlineStr"/>
       <c r="E32" s="6" t="n">
-        <v>-0.6288893632149326</v>
+        <v>-0.647370509523588</v>
       </c>
     </row>
     <row r="33">
@@ -1065,13 +1063,11 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>6.25795254251106</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>5.170376583394946</v>
-      </c>
+        <v>5.903945614674921</v>
+      </c>
+      <c r="D33" s="6" t="inlineStr"/>
       <c r="E33" s="6" t="n">
-        <v>4.3668114101147</v>
+        <v>5.08742251431164</v>
       </c>
     </row>
     <row r="34">
@@ -1103,13 +1099,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.6641056264927097</v>
+        <v>-0.6535639551844878</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.5148996025898478</v>
+        <v>-0.5159877440675606</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.7973178725491872</v>
+        <v>-0.9043611066229057</v>
       </c>
     </row>
     <row r="36">
@@ -1120,13 +1116,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.5516999203208977</v>
+        <v>0.5340166198931191</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7091446816793436</v>
+        <v>0.7227817325060628</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.1805688778211788</v>
+        <v>0.1055910666224603</v>
       </c>
     </row>
     <row r="37">
@@ -1157,7 +1153,7 @@
         <v>-1</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.7147172956727413</v>
+        <v>-0.7564985529528008</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>-1</v>
@@ -1171,13 +1167,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.842440723609277</v>
+        <v>2.640926036500387</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>4.937787288187454</v>
+        <v>3.898366444487178</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.626929568983985</v>
+        <v>1.409568860265653</v>
       </c>
     </row>
     <row r="40">
@@ -1198,7 +1194,7 @@
         <v>-0.2012852025849324</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.2108235902911318</v>
+        <v>-0.2108235902911316</v>
       </c>
     </row>
     <row r="41">
@@ -1209,13 +1205,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5320287625378735</v>
+        <v>-0.493902515173662</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.5700213295508492</v>
+        <v>-0.5950468077770626</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5687871930268591</v>
+        <v>-0.5744294259289424</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1222,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.2762581949400486</v>
+        <v>0.323352431271015</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.1587408749722977</v>
+        <v>0.1652274445829279</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.1276256056370676</v>
+        <v>0.1195630056583867</v>
       </c>
     </row>
     <row r="43">
@@ -1249,7 +1245,7 @@
         <v>-0.2821238287044726</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.2954929508494805</v>
+        <v>-0.2954929508494803</v>
       </c>
     </row>
     <row r="44">
@@ -1260,13 +1256,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5819493280281517</v>
+        <v>-0.552390097232658</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6087247008277257</v>
+        <v>-0.6518880674217871</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6043013924116979</v>
+        <v>-0.631729172081483</v>
       </c>
     </row>
     <row r="45">
@@ -1277,13 +1273,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5950556525406926</v>
+        <v>0.6556666432582964</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4006848677458933</v>
+        <v>0.3472601499585219</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.272616105338476</v>
+        <v>0.2398674253818761</v>
       </c>
     </row>
     <row r="46">
